--- a/Code/Results/Cases/Case_4_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.26878540432912</v>
+        <v>14.37061877171383</v>
       </c>
       <c r="C2">
-        <v>14.54342142374411</v>
+        <v>9.884314789811398</v>
       </c>
       <c r="D2">
-        <v>10.36421876110088</v>
+        <v>14.39115976362049</v>
       </c>
       <c r="E2">
-        <v>10.00891103638902</v>
+        <v>15.39957656373883</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.082679242159181</v>
+        <v>3.661767390434881</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.51071690737454</v>
+        <v>22.97566110531809</v>
       </c>
       <c r="J2">
-        <v>5.112442115056751</v>
+        <v>9.061049849680234</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.68799257850339</v>
+        <v>18.67517686617916</v>
       </c>
       <c r="N2">
-        <v>11.94876397257456</v>
+        <v>18.20806076758938</v>
       </c>
       <c r="O2">
-        <v>18.5411004346626</v>
+        <v>26.4942358580312</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.96198103057487</v>
+        <v>13.9295752237302</v>
       </c>
       <c r="C3">
-        <v>13.55055972169743</v>
+        <v>9.501624798638456</v>
       </c>
       <c r="D3">
-        <v>10.05456875556654</v>
+        <v>14.37751138725411</v>
       </c>
       <c r="E3">
-        <v>9.848369588696373</v>
+        <v>15.41717945590063</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.089161957302276</v>
+        <v>3.664234663915335</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.55048330923613</v>
+        <v>23.06535142602514</v>
       </c>
       <c r="J3">
-        <v>5.150521028744005</v>
+        <v>9.081696179924258</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.91420579992692</v>
+        <v>18.54634220505655</v>
       </c>
       <c r="N3">
-        <v>12.15205980605901</v>
+        <v>18.26955369139376</v>
       </c>
       <c r="O3">
-        <v>18.20111967984246</v>
+        <v>26.53305918157813</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.11273704893093</v>
+        <v>13.65391967627984</v>
       </c>
       <c r="C4">
-        <v>12.9058821288551</v>
+        <v>9.26016709825886</v>
       </c>
       <c r="D4">
-        <v>9.866889156048735</v>
+        <v>14.3721014056666</v>
       </c>
       <c r="E4">
-        <v>9.755418508978638</v>
+        <v>15.430789734748</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.093261064485359</v>
+        <v>3.665830180166266</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.58990423427665</v>
+        <v>23.12551386557413</v>
       </c>
       <c r="J4">
-        <v>5.175522077001391</v>
+        <v>9.095195866346218</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.4254080017174</v>
+        <v>18.47017247404965</v>
       </c>
       <c r="N4">
-        <v>12.2798286677957</v>
+        <v>18.30915398998956</v>
       </c>
       <c r="O4">
-        <v>18.00800651843989</v>
+        <v>26.56353488202147</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.75479834257683</v>
+        <v>13.54054431278718</v>
       </c>
       <c r="C5">
-        <v>12.63428692784421</v>
+        <v>9.160292797815215</v>
       </c>
       <c r="D5">
-        <v>9.791112933924687</v>
+        <v>14.37064563839026</v>
       </c>
       <c r="E5">
-        <v>9.718954257434561</v>
+        <v>15.43704018746599</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.094962225105835</v>
+        <v>3.666500700716882</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.60955397316273</v>
+        <v>23.1513076832832</v>
       </c>
       <c r="J5">
-        <v>5.186111889152258</v>
+        <v>9.100904383524714</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.22301865766712</v>
+        <v>18.43989716337929</v>
       </c>
       <c r="N5">
-        <v>12.33265533140824</v>
+        <v>18.32575631872854</v>
       </c>
       <c r="O5">
-        <v>17.93320481964752</v>
+        <v>26.57761879196974</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.6946439369194</v>
+        <v>13.52166080978282</v>
       </c>
       <c r="C6">
-        <v>12.58865021528561</v>
+        <v>9.143624232046955</v>
       </c>
       <c r="D6">
-        <v>9.778575591911922</v>
+        <v>14.37044918549208</v>
       </c>
       <c r="E6">
-        <v>9.712984749225674</v>
+        <v>15.43812058316377</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.095246583529534</v>
+        <v>3.666613270284888</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.61302793475551</v>
+        <v>23.15566776461139</v>
       </c>
       <c r="J6">
-        <v>5.187894420018398</v>
+        <v>9.101864809692225</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.18922667456724</v>
+        <v>18.4349168898353</v>
       </c>
       <c r="N6">
-        <v>12.34147360800596</v>
+        <v>18.32854124051897</v>
       </c>
       <c r="O6">
-        <v>17.92101783603492</v>
+        <v>26.58005782531993</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.10795790956449</v>
+        <v>13.65239463863622</v>
       </c>
       <c r="C7">
-        <v>12.90225536113148</v>
+        <v>9.258825930907635</v>
       </c>
       <c r="D7">
-        <v>9.865864237255932</v>
+        <v>14.3720787384061</v>
       </c>
       <c r="E7">
-        <v>9.754921015686328</v>
+        <v>15.43087118016468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.093283881311151</v>
+        <v>3.665839140617236</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.59015496549042</v>
+        <v>23.12585656342837</v>
       </c>
       <c r="J7">
-        <v>5.175663275798906</v>
+        <v>9.095272013588678</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.42269111523623</v>
+        <v>18.46976104139205</v>
       </c>
       <c r="N7">
-        <v>12.2805380048472</v>
+        <v>18.30937601071722</v>
       </c>
       <c r="O7">
-        <v>18.00698201212814</v>
+        <v>26.56371808807159</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.82787559625553</v>
+        <v>14.21965636437547</v>
       </c>
       <c r="C8">
-        <v>14.20831676352904</v>
+        <v>9.753795429394579</v>
       </c>
       <c r="D8">
-        <v>10.25699606346259</v>
+        <v>14.38583866856195</v>
       </c>
       <c r="E8">
-        <v>9.952390593047001</v>
+        <v>15.40506426410891</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.084890401059774</v>
+        <v>3.662601418183669</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.52120037484405</v>
+        <v>23.00552743593456</v>
       </c>
       <c r="J8">
-        <v>5.125231763866518</v>
+        <v>9.067998179697243</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.42416458526749</v>
+        <v>18.63016164736296</v>
       </c>
       <c r="N8">
-        <v>12.01826114234379</v>
+        <v>18.22888174426399</v>
       </c>
       <c r="O8">
-        <v>18.42061034317175</v>
+        <v>26.50624197091135</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.83258546652392</v>
+        <v>15.28643348655992</v>
       </c>
       <c r="C9">
-        <v>16.49454033863845</v>
+        <v>10.66710558272861</v>
       </c>
       <c r="D9">
-        <v>11.03974831158521</v>
+        <v>14.43628236233661</v>
       </c>
       <c r="E9">
-        <v>10.3841121714831</v>
+        <v>15.37670382622635</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.06932953596144</v>
+        <v>3.656888722264705</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.51357195427118</v>
+        <v>22.81011548319137</v>
       </c>
       <c r="J9">
-        <v>5.03948003889364</v>
+        <v>9.021024620991758</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.27086537366567</v>
+        <v>18.96678411976186</v>
       </c>
       <c r="N9">
-        <v>11.52638926416288</v>
+        <v>18.08559724661002</v>
       </c>
       <c r="O9">
-        <v>19.35698468939914</v>
+        <v>26.44637140841317</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.82118928672769</v>
+        <v>16.03378959100406</v>
       </c>
       <c r="C10">
-        <v>18.01121966880774</v>
+        <v>11.29637966987995</v>
       </c>
       <c r="D10">
-        <v>11.62004474734379</v>
+        <v>14.48747353121877</v>
       </c>
       <c r="E10">
-        <v>10.72818335557295</v>
+        <v>15.36944029447416</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.058380629330321</v>
+        <v>3.653075332850133</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.59758758111654</v>
+        <v>22.69147047215374</v>
       </c>
       <c r="J10">
-        <v>4.984932762767451</v>
+        <v>8.990457391337619</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.54737310359928</v>
+        <v>19.2258674305911</v>
       </c>
       <c r="N10">
-        <v>11.17738833291926</v>
+        <v>17.98911764158692</v>
       </c>
       <c r="O10">
-        <v>20.12240473384701</v>
+        <v>26.43479208348415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.67954368061272</v>
+        <v>16.36432399703952</v>
       </c>
       <c r="C11">
-        <v>18.66686093104217</v>
+        <v>11.57243716054887</v>
       </c>
       <c r="D11">
-        <v>11.88441789703574</v>
+        <v>14.51378288162639</v>
       </c>
       <c r="E11">
-        <v>10.89049505891038</v>
+        <v>15.369081508583</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.053489293710898</v>
+        <v>3.651422935401769</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.6578287593644</v>
+        <v>22.64295054407105</v>
       </c>
       <c r="J11">
-        <v>4.96206527176054</v>
+        <v>8.977402857247903</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.22482304720315</v>
+        <v>19.34590921417255</v>
       </c>
       <c r="N11">
-        <v>11.0210114915262</v>
+        <v>17.94711707999212</v>
       </c>
       <c r="O11">
-        <v>20.48758464459956</v>
+        <v>26.43658872570796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.99803132035356</v>
+        <v>16.48801888808896</v>
       </c>
       <c r="C12">
-        <v>18.91029384179902</v>
+        <v>11.67542638521036</v>
       </c>
       <c r="D12">
-        <v>11.98453662612321</v>
+        <v>14.5241752960937</v>
       </c>
       <c r="E12">
-        <v>10.95278752297329</v>
+        <v>15.36936865370393</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.051648542151389</v>
+        <v>3.6508089855047</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.68401730105727</v>
+        <v>22.62536484664629</v>
       </c>
       <c r="J12">
-        <v>4.953696444205331</v>
+        <v>8.972581382506499</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.4767685952519</v>
+        <v>19.39164730105387</v>
       </c>
       <c r="N12">
-        <v>10.96211417276669</v>
+        <v>17.93148276475426</v>
       </c>
       <c r="O12">
-        <v>20.62832191226301</v>
+        <v>26.43828581799944</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.92972906838851</v>
+        <v>16.46144609861593</v>
       </c>
       <c r="C13">
-        <v>18.85808019003177</v>
+        <v>11.65331581705322</v>
       </c>
       <c r="D13">
-        <v>11.9629746617843</v>
+        <v>14.52191807983703</v>
       </c>
       <c r="E13">
-        <v>10.93933491744139</v>
+        <v>15.36928800930674</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.052044492728979</v>
+        <v>3.65094068779293</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.6782236312495</v>
+        <v>22.62911714739733</v>
       </c>
       <c r="J13">
-        <v>4.955485713959047</v>
+        <v>8.973614352820544</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.42272559666999</v>
+        <v>19.3817848249006</v>
       </c>
       <c r="N13">
-        <v>10.97478495337388</v>
+        <v>17.93483788733565</v>
       </c>
       <c r="O13">
-        <v>20.5979023980783</v>
+        <v>26.43787509234943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.70587657528051</v>
+        <v>16.37453054552949</v>
       </c>
       <c r="C14">
-        <v>18.68698486237963</v>
+        <v>11.58094158810725</v>
       </c>
       <c r="D14">
-        <v>11.89265484488192</v>
+        <v>14.51462929147696</v>
       </c>
       <c r="E14">
-        <v>10.89560330775749</v>
+        <v>15.36909665830631</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.053337631864452</v>
+        <v>3.65137218969685</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.65991443868912</v>
+        <v>22.64148794945801</v>
       </c>
       <c r="J14">
-        <v>4.961370873930557</v>
+        <v>8.977003748541811</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.24564912663684</v>
+        <v>19.34966667599981</v>
       </c>
       <c r="N14">
-        <v>11.0161597150213</v>
+        <v>17.94582542321091</v>
       </c>
       <c r="O14">
-        <v>20.49911398424354</v>
+        <v>26.4367079669083</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.56791021543057</v>
+        <v>16.32109748483239</v>
       </c>
       <c r="C15">
-        <v>18.58155589226496</v>
+        <v>11.5364065151374</v>
       </c>
       <c r="D15">
-        <v>11.84958145775702</v>
+        <v>14.51022049355962</v>
       </c>
       <c r="E15">
-        <v>10.86892424978841</v>
+        <v>15.36903451890183</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.054131171125681</v>
+        <v>3.651638028968888</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.6491454578181</v>
+        <v>22.64916812011272</v>
       </c>
       <c r="J15">
-        <v>4.965013885603891</v>
+        <v>8.979095728842502</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.13654475800192</v>
+        <v>19.33002897091555</v>
       </c>
       <c r="N15">
-        <v>11.04154380311087</v>
+        <v>17.95259078379079</v>
       </c>
       <c r="O15">
-        <v>20.43892283303802</v>
+        <v>26.43612549314865</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.76417125045436</v>
+        <v>16.01198841054382</v>
       </c>
       <c r="C16">
-        <v>17.9676891540599</v>
+        <v>11.27812621315521</v>
       </c>
       <c r="D16">
-        <v>11.60277070692677</v>
+        <v>14.48581455586067</v>
       </c>
       <c r="E16">
-        <v>10.71769202846668</v>
+        <v>15.36952297037525</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.058701974217501</v>
+        <v>3.653184972326574</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.59411177403693</v>
+        <v>22.69475139611843</v>
       </c>
       <c r="J16">
-        <v>4.986467262985346</v>
+        <v>8.991327624911625</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.51025867597322</v>
+        <v>19.21806353307589</v>
       </c>
       <c r="N16">
-        <v>11.18765390522127</v>
+        <v>17.99190037733958</v>
       </c>
       <c r="O16">
-        <v>20.09888185437994</v>
+        <v>26.43481691419651</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.25932270050429</v>
+        <v>15.81985705764225</v>
       </c>
       <c r="C17">
-        <v>17.58237729020507</v>
+        <v>11.11700553101057</v>
       </c>
       <c r="D17">
-        <v>11.45142179322715</v>
+        <v>14.47161300075647</v>
       </c>
       <c r="E17">
-        <v>10.6263956259049</v>
+        <v>15.37057669962633</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.06152797069377</v>
+        <v>3.654155014934493</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.56614032328383</v>
+        <v>22.72411437874284</v>
       </c>
       <c r="J17">
-        <v>5.000133996180646</v>
+        <v>8.999049133751754</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.18290765153669</v>
+        <v>19.14991217326959</v>
       </c>
       <c r="N17">
-        <v>11.27788192568126</v>
+        <v>18.01649838500654</v>
       </c>
       <c r="O17">
-        <v>19.89463363574012</v>
+        <v>26.43582434374252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.96458554177308</v>
+        <v>15.70846549115759</v>
       </c>
       <c r="C18">
-        <v>17.35752167778045</v>
+        <v>11.02337693953752</v>
       </c>
       <c r="D18">
-        <v>11.36440924963012</v>
+        <v>14.46372943747174</v>
       </c>
       <c r="E18">
-        <v>10.57442967351404</v>
+        <v>15.37146006069236</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.063161909370357</v>
+        <v>3.654720710999203</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.5521121961621</v>
+        <v>22.7415161650794</v>
       </c>
       <c r="J18">
-        <v>5.008177232923463</v>
+        <v>9.003570428103391</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.99287569877457</v>
+        <v>19.11092084479796</v>
       </c>
       <c r="N18">
-        <v>11.3300046889752</v>
+        <v>18.03082433162827</v>
       </c>
       <c r="O18">
-        <v>19.77875367811032</v>
+        <v>26.43706869335424</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.86404048574366</v>
+        <v>15.67060227880354</v>
       </c>
       <c r="C19">
-        <v>17.28083129625627</v>
+        <v>10.9915143152459</v>
       </c>
       <c r="D19">
-        <v>11.33495676907426</v>
+        <v>14.46110925519243</v>
       </c>
       <c r="E19">
-        <v>10.55692872480774</v>
+        <v>15.37180678825361</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.063716632580351</v>
+        <v>3.654913579490348</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.54770996566383</v>
+        <v>22.74749610098593</v>
       </c>
       <c r="J19">
-        <v>5.010931569573704</v>
+        <v>9.005115025759897</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.92823627167902</v>
+        <v>19.0977556971894</v>
       </c>
       <c r="N19">
-        <v>11.34769209157733</v>
+        <v>18.03570542850572</v>
       </c>
       <c r="O19">
-        <v>19.73979299782636</v>
+        <v>26.43760416555537</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.31351538438706</v>
+        <v>15.84040198511867</v>
       </c>
       <c r="C20">
-        <v>17.62372851976177</v>
+        <v>11.13425668927492</v>
       </c>
       <c r="D20">
-        <v>11.46752947065881</v>
+        <v>14.47309533960071</v>
       </c>
       <c r="E20">
-        <v>10.63605788406378</v>
+        <v>15.37043583373087</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.061226268316138</v>
+        <v>3.654050950265251</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.56890317461028</v>
+        <v>22.72093552098321</v>
       </c>
       <c r="J20">
-        <v>4.99866018766703</v>
+        <v>8.998218879676376</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.21793622050767</v>
+        <v>19.15714576183357</v>
       </c>
       <c r="N20">
-        <v>11.2682537802194</v>
+        <v>18.01386148963145</v>
       </c>
       <c r="O20">
-        <v>19.91621074618027</v>
+        <v>26.43564827697508</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.77180448096248</v>
+        <v>16.40010052721133</v>
       </c>
       <c r="C21">
-        <v>18.73737044614768</v>
+        <v>11.60224224720328</v>
       </c>
       <c r="D21">
-        <v>11.91330965089942</v>
+        <v>14.51675856713292</v>
       </c>
       <c r="E21">
-        <v>10.90842587681908</v>
+        <v>15.36914138775359</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.052957505087726</v>
+        <v>3.651245127992412</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.66519898878201</v>
+        <v>22.6378329364597</v>
       </c>
       <c r="J21">
-        <v>4.959634282126746</v>
+        <v>8.976004892569087</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.29779396493922</v>
+        <v>19.35909319783014</v>
       </c>
       <c r="N21">
-        <v>11.00399847443888</v>
+        <v>17.94259078867696</v>
       </c>
       <c r="O21">
-        <v>20.52806390794746</v>
+        <v>26.43702318227075</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.68673820167115</v>
+        <v>16.75727557387345</v>
       </c>
       <c r="C22">
-        <v>19.43700900005934</v>
+        <v>11.89904650695414</v>
       </c>
       <c r="D22">
-        <v>12.20467473278133</v>
+        <v>14.54779659996787</v>
       </c>
       <c r="E22">
-        <v>11.09126357843043</v>
+        <v>15.37076061184269</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.047619655656223</v>
+        <v>3.649479978682298</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.74791113295789</v>
+        <v>22.58811386783067</v>
       </c>
       <c r="J22">
-        <v>4.935828210610945</v>
+        <v>8.962197693495868</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.0220434231903</v>
+        <v>19.49269906532248</v>
       </c>
       <c r="N22">
-        <v>10.83314142834631</v>
+        <v>17.89758674834097</v>
       </c>
       <c r="O22">
-        <v>20.94224302644503</v>
+        <v>26.44384799911583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.20187610526508</v>
+        <v>16.56746774607485</v>
       </c>
       <c r="C23">
-        <v>19.06614755306801</v>
+        <v>11.74148852968376</v>
       </c>
       <c r="D23">
-        <v>12.04917930214644</v>
+        <v>14.5310038882887</v>
       </c>
       <c r="E23">
-        <v>10.99323846315379</v>
+        <v>15.36967106823383</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.050462982277229</v>
+        <v>3.650415813984213</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.70188751310178</v>
+        <v>22.61422837190499</v>
       </c>
       <c r="J23">
-        <v>4.948374604381748</v>
+        <v>8.96950191297308</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.63809404269676</v>
+        <v>19.42125375073984</v>
       </c>
       <c r="N23">
-        <v>10.92416987846759</v>
+        <v>17.92146247910033</v>
       </c>
       <c r="O23">
-        <v>20.71987530245727</v>
+        <v>26.43966310892684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.28902887430034</v>
+        <v>15.83111651974843</v>
       </c>
       <c r="C24">
-        <v>17.60504402233331</v>
+        <v>11.12646054346979</v>
       </c>
       <c r="D24">
-        <v>11.46024718585415</v>
+        <v>14.47242429824807</v>
       </c>
       <c r="E24">
-        <v>10.63168795221729</v>
+        <v>15.37049865459532</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.061362639092476</v>
+        <v>3.654097972960448</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.56764771069711</v>
+        <v>22.72237106110664</v>
       </c>
       <c r="J24">
-        <v>4.999325917788858</v>
+        <v>8.998593981789853</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.20210551017936</v>
+        <v>19.15387486270865</v>
       </c>
       <c r="N24">
-        <v>11.27260588593573</v>
+        <v>18.01505305606097</v>
       </c>
       <c r="O24">
-        <v>19.90645092260574</v>
+        <v>26.43572580482661</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.05858590373018</v>
+        <v>15.0036650521918</v>
       </c>
       <c r="C25">
-        <v>15.90502763022343</v>
+        <v>10.42692513477017</v>
       </c>
       <c r="D25">
-        <v>10.82679108080694</v>
+        <v>14.42014011488211</v>
       </c>
       <c r="E25">
-        <v>10.26257797177566</v>
+        <v>15.38199251281198</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.073449312730173</v>
+        <v>3.65836646365585</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.50076065403874</v>
+        <v>22.85861712898386</v>
       </c>
       <c r="J25">
-        <v>5.061228222797194</v>
+        <v>9.033037802573537</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.78487218387104</v>
+        <v>18.87352647670668</v>
       </c>
       <c r="N25">
-        <v>11.65718292160093</v>
+        <v>18.12280937079081</v>
       </c>
       <c r="O25">
-        <v>19.09012166897901</v>
+        <v>26.45688820967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_221/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_221/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.37061877171383</v>
+        <v>19.2687854043291</v>
       </c>
       <c r="C2">
-        <v>9.884314789811398</v>
+        <v>14.54342142374417</v>
       </c>
       <c r="D2">
-        <v>14.39115976362049</v>
+        <v>10.36421876110089</v>
       </c>
       <c r="E2">
-        <v>15.39957656373883</v>
+        <v>10.00891103638898</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.661767390434881</v>
+        <v>2.08267924215878</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>22.97566110531809</v>
+        <v>14.51071690737461</v>
       </c>
       <c r="J2">
-        <v>9.061049849680234</v>
+        <v>5.112442115056658</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.67517686617916</v>
+        <v>15.6879925785034</v>
       </c>
       <c r="N2">
-        <v>18.20806076758938</v>
+        <v>11.9487639725746</v>
       </c>
       <c r="O2">
-        <v>26.4942358580312</v>
+        <v>18.54110043466262</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.9295752237302</v>
+        <v>17.96198103057491</v>
       </c>
       <c r="C3">
-        <v>9.501624798638456</v>
+        <v>13.55055972169747</v>
       </c>
       <c r="D3">
-        <v>14.37751138725411</v>
+        <v>10.05456875556651</v>
       </c>
       <c r="E3">
-        <v>15.41717945590063</v>
+        <v>9.848369588696428</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.664234663915335</v>
+        <v>2.08916195730241</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.06535142602514</v>
+        <v>14.55048330923617</v>
       </c>
       <c r="J3">
-        <v>9.081696179924258</v>
+        <v>5.150521028744006</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.54634220505655</v>
+        <v>14.91420579992693</v>
       </c>
       <c r="N3">
-        <v>18.26955369139376</v>
+        <v>12.15205980605907</v>
       </c>
       <c r="O3">
-        <v>26.53305918157813</v>
+        <v>18.20111967984249</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.65391967627984</v>
+        <v>17.1127370489309</v>
       </c>
       <c r="C4">
-        <v>9.26016709825886</v>
+        <v>12.9058821288551</v>
       </c>
       <c r="D4">
-        <v>14.3721014056666</v>
+        <v>9.866889156048771</v>
       </c>
       <c r="E4">
-        <v>15.430789734748</v>
+        <v>9.755418508978675</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.665830180166266</v>
+        <v>2.093261064485358</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.12551386557413</v>
+        <v>14.58990423427686</v>
       </c>
       <c r="J4">
-        <v>9.095195866346218</v>
+        <v>5.175522077001387</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.47017247404965</v>
+        <v>14.42540800171743</v>
       </c>
       <c r="N4">
-        <v>18.30915398998956</v>
+        <v>12.2798286677958</v>
       </c>
       <c r="O4">
-        <v>26.56353488202147</v>
+        <v>18.00800651844008</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.54054431278718</v>
+        <v>16.75479834257678</v>
       </c>
       <c r="C5">
-        <v>9.160292797815215</v>
+        <v>12.63428692784424</v>
       </c>
       <c r="D5">
-        <v>14.37064563839026</v>
+        <v>9.791112933924763</v>
       </c>
       <c r="E5">
-        <v>15.43704018746599</v>
+        <v>9.718954257434524</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.666500700716882</v>
+        <v>2.094962225106235</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.1513076832832</v>
+        <v>14.60955397316291</v>
       </c>
       <c r="J5">
-        <v>9.100904383524714</v>
+        <v>5.186111889152292</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.43989716337929</v>
+        <v>14.22301865766715</v>
       </c>
       <c r="N5">
-        <v>18.32575631872854</v>
+        <v>12.33265533140834</v>
       </c>
       <c r="O5">
-        <v>26.57761879196974</v>
+        <v>17.93320481964768</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.52166080978282</v>
+        <v>16.69464393691946</v>
       </c>
       <c r="C6">
-        <v>9.143624232046955</v>
+        <v>12.58865021528553</v>
       </c>
       <c r="D6">
-        <v>14.37044918549208</v>
+        <v>9.778575591912091</v>
       </c>
       <c r="E6">
-        <v>15.43812058316377</v>
+        <v>9.712984749225786</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.666613270284888</v>
+        <v>2.095246583529668</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.15566776461139</v>
+        <v>14.61302793475524</v>
       </c>
       <c r="J6">
-        <v>9.101864809692225</v>
+        <v>5.187894420018369</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.4349168898353</v>
+        <v>14.18922667456726</v>
       </c>
       <c r="N6">
-        <v>18.32854124051897</v>
+        <v>12.34147360800579</v>
       </c>
       <c r="O6">
-        <v>26.58005782531993</v>
+        <v>17.92101783603475</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.65239463863622</v>
+        <v>17.10795790956456</v>
       </c>
       <c r="C7">
-        <v>9.258825930907635</v>
+        <v>12.90225536113138</v>
       </c>
       <c r="D7">
-        <v>14.3720787384061</v>
+        <v>9.865864237255959</v>
       </c>
       <c r="E7">
-        <v>15.43087118016468</v>
+        <v>9.754921015686341</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.665839140617236</v>
+        <v>2.093283881310885</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.12585656342837</v>
+        <v>14.59015496549027</v>
       </c>
       <c r="J7">
-        <v>9.095272013588678</v>
+        <v>5.175663275798875</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.46976104139205</v>
+        <v>14.42269111523621</v>
       </c>
       <c r="N7">
-        <v>18.30937601071722</v>
+        <v>12.28053800484714</v>
       </c>
       <c r="O7">
-        <v>26.56371808807159</v>
+        <v>18.00698201212806</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.21965636437547</v>
+        <v>18.82787559625547</v>
       </c>
       <c r="C8">
-        <v>9.753795429394579</v>
+        <v>14.20831676352907</v>
       </c>
       <c r="D8">
-        <v>14.38583866856195</v>
+        <v>10.2569960634626</v>
       </c>
       <c r="E8">
-        <v>15.40506426410891</v>
+        <v>9.952390593047134</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.662601418183669</v>
+        <v>2.084890401059773</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.00552743593456</v>
+        <v>14.52120037484419</v>
       </c>
       <c r="J8">
-        <v>9.067998179697243</v>
+        <v>5.125231763866609</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.63016164736296</v>
+        <v>15.42416458526753</v>
       </c>
       <c r="N8">
-        <v>18.22888174426399</v>
+        <v>12.01826114234382</v>
       </c>
       <c r="O8">
-        <v>26.50624197091135</v>
+        <v>18.42061034317183</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.28643348655992</v>
+        <v>21.83258546652404</v>
       </c>
       <c r="C9">
-        <v>10.66710558272861</v>
+        <v>16.49454033863847</v>
       </c>
       <c r="D9">
-        <v>14.43628236233661</v>
+        <v>11.03974831158519</v>
       </c>
       <c r="E9">
-        <v>15.37670382622635</v>
+        <v>10.38411217148311</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.656888722264705</v>
+        <v>2.069329535961575</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.81011548319137</v>
+        <v>14.51357195427101</v>
       </c>
       <c r="J9">
-        <v>9.021024620991758</v>
+        <v>5.039480038893664</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.96678411976186</v>
+        <v>17.27086537366565</v>
       </c>
       <c r="N9">
-        <v>18.08559724661002</v>
+        <v>11.52638926416278</v>
       </c>
       <c r="O9">
-        <v>26.44637140841317</v>
+        <v>19.35698468939903</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.03378959100406</v>
+        <v>23.8211892867277</v>
       </c>
       <c r="C10">
-        <v>11.29637966987995</v>
+        <v>18.01121966880779</v>
       </c>
       <c r="D10">
-        <v>14.48747353121877</v>
+        <v>11.6200447473438</v>
       </c>
       <c r="E10">
-        <v>15.36944029447416</v>
+        <v>10.72818335557295</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.653075332850133</v>
+        <v>2.058380629330587</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>22.69147047215374</v>
+        <v>14.59758758111656</v>
       </c>
       <c r="J10">
-        <v>8.990457391337619</v>
+        <v>4.984932762767453</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.2258674305911</v>
+        <v>18.54737310359928</v>
       </c>
       <c r="N10">
-        <v>17.98911764158692</v>
+        <v>11.17738833291926</v>
       </c>
       <c r="O10">
-        <v>26.43479208348415</v>
+        <v>20.122404733847</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.36432399703952</v>
+        <v>24.67954368061282</v>
       </c>
       <c r="C11">
-        <v>11.57243716054887</v>
+        <v>18.66686093104211</v>
       </c>
       <c r="D11">
-        <v>14.51378288162639</v>
+        <v>11.88441789703572</v>
       </c>
       <c r="E11">
-        <v>15.369081508583</v>
+        <v>10.89049505891042</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.651422935401769</v>
+        <v>2.053489293710632</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>22.64295054407105</v>
+        <v>14.6578287593643</v>
       </c>
       <c r="J11">
-        <v>8.977402857247903</v>
+        <v>4.962065271760572</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.34590921417255</v>
+        <v>19.22482304720316</v>
       </c>
       <c r="N11">
-        <v>17.94711707999212</v>
+        <v>11.02101149152616</v>
       </c>
       <c r="O11">
-        <v>26.43658872570796</v>
+        <v>20.48758464459954</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.48801888808896</v>
+        <v>24.99803132035349</v>
       </c>
       <c r="C12">
-        <v>11.67542638521036</v>
+        <v>18.91029384179902</v>
       </c>
       <c r="D12">
-        <v>14.5241752960937</v>
+        <v>11.98453662612321</v>
       </c>
       <c r="E12">
-        <v>15.36936865370393</v>
+        <v>10.95278752297334</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.6508089855047</v>
+        <v>2.051648542151789</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>22.62536484664629</v>
+        <v>14.68401730105732</v>
       </c>
       <c r="J12">
-        <v>8.972581382506499</v>
+        <v>4.953696444205305</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.39164730105387</v>
+        <v>19.47676859525186</v>
       </c>
       <c r="N12">
-        <v>17.93148276475426</v>
+        <v>10.96211417276672</v>
       </c>
       <c r="O12">
-        <v>26.43828581799944</v>
+        <v>20.62832191226305</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.46144609861593</v>
+        <v>24.92972906838847</v>
       </c>
       <c r="C13">
-        <v>11.65331581705322</v>
+        <v>18.8580801900317</v>
       </c>
       <c r="D13">
-        <v>14.52191807983703</v>
+        <v>11.96297466178429</v>
       </c>
       <c r="E13">
-        <v>15.36928800930674</v>
+        <v>10.93933491744132</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.65094068779293</v>
+        <v>2.052044492729246</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>22.62911714739733</v>
+        <v>14.67822363124956</v>
       </c>
       <c r="J13">
-        <v>8.973614352820544</v>
+        <v>4.955485713958985</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.3817848249006</v>
+        <v>19.42272559666997</v>
       </c>
       <c r="N13">
-        <v>17.93483788733565</v>
+        <v>10.97478495337388</v>
       </c>
       <c r="O13">
-        <v>26.43787509234943</v>
+        <v>20.59790239807836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.37453054552949</v>
+        <v>24.70587657528052</v>
       </c>
       <c r="C14">
-        <v>11.58094158810725</v>
+        <v>18.68698486237963</v>
       </c>
       <c r="D14">
-        <v>14.51462929147696</v>
+        <v>11.8926548448819</v>
       </c>
       <c r="E14">
-        <v>15.36909665830631</v>
+        <v>10.89560330775742</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.65137218969685</v>
+        <v>2.053337631864453</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>22.64148794945801</v>
+        <v>14.65991443868917</v>
       </c>
       <c r="J14">
-        <v>8.977003748541811</v>
+        <v>4.961370873930444</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.34966667599981</v>
+        <v>19.24564912663691</v>
       </c>
       <c r="N14">
-        <v>17.94582542321091</v>
+        <v>11.0161597150213</v>
       </c>
       <c r="O14">
-        <v>26.4367079669083</v>
+        <v>20.49911398424359</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.32109748483239</v>
+        <v>24.56791021543059</v>
       </c>
       <c r="C15">
-        <v>11.5364065151374</v>
+        <v>18.58155589226482</v>
       </c>
       <c r="D15">
-        <v>14.51022049355962</v>
+        <v>11.84958145775695</v>
       </c>
       <c r="E15">
-        <v>15.36903451890183</v>
+        <v>10.86892424978841</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.651638028968888</v>
+        <v>2.05413117112568</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22.64916812011272</v>
+        <v>14.64914545781809</v>
       </c>
       <c r="J15">
-        <v>8.979095728842502</v>
+        <v>4.965013885603919</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.33002897091555</v>
+        <v>19.13654475800192</v>
       </c>
       <c r="N15">
-        <v>17.95259078379079</v>
+        <v>11.04154380311079</v>
       </c>
       <c r="O15">
-        <v>26.43612549314865</v>
+        <v>20.43892283303808</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.01198841054382</v>
+        <v>23.76417125045435</v>
       </c>
       <c r="C16">
-        <v>11.27812621315521</v>
+        <v>17.9676891540598</v>
       </c>
       <c r="D16">
-        <v>14.48581455586067</v>
+        <v>11.60277070692685</v>
       </c>
       <c r="E16">
-        <v>15.36952297037525</v>
+        <v>10.71769202846677</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.653184972326574</v>
+        <v>2.058701974217635</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>22.69475139611843</v>
+        <v>14.59411177403702</v>
       </c>
       <c r="J16">
-        <v>8.991327624911625</v>
+        <v>4.986467262985342</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.21806353307589</v>
+        <v>18.51025867597325</v>
       </c>
       <c r="N16">
-        <v>17.99190037733958</v>
+        <v>11.18765390522134</v>
       </c>
       <c r="O16">
-        <v>26.43481691419651</v>
+        <v>20.09888185438004</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.81985705764225</v>
+        <v>23.25932270050433</v>
       </c>
       <c r="C17">
-        <v>11.11700553101057</v>
+        <v>17.58237729020498</v>
       </c>
       <c r="D17">
-        <v>14.47161300075647</v>
+        <v>11.4514217932271</v>
       </c>
       <c r="E17">
-        <v>15.37057669962633</v>
+        <v>10.62639562590498</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.654155014934493</v>
+        <v>2.061527970694037</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>22.72411437874284</v>
+        <v>14.5661403232838</v>
       </c>
       <c r="J17">
-        <v>8.999049133751754</v>
+        <v>5.000133996180766</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.14991217326959</v>
+        <v>18.18290765153671</v>
       </c>
       <c r="N17">
-        <v>18.01649838500654</v>
+        <v>11.27788192568126</v>
       </c>
       <c r="O17">
-        <v>26.43582434374252</v>
+        <v>19.89463363574012</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.70846549115759</v>
+        <v>22.96458554177304</v>
       </c>
       <c r="C18">
-        <v>11.02337693953752</v>
+        <v>17.35752167778055</v>
       </c>
       <c r="D18">
-        <v>14.46372943747174</v>
+        <v>11.36440924963016</v>
       </c>
       <c r="E18">
-        <v>15.37146006069236</v>
+        <v>10.57442967351404</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.654720710999203</v>
+        <v>2.063161909370493</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>22.7415161650794</v>
+        <v>14.55211219616216</v>
       </c>
       <c r="J18">
-        <v>9.003570428103391</v>
+        <v>5.008177232923433</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.11092084479796</v>
+        <v>17.99287569877457</v>
       </c>
       <c r="N18">
-        <v>18.03082433162827</v>
+        <v>11.3300046889752</v>
       </c>
       <c r="O18">
-        <v>26.43706869335424</v>
+        <v>19.77875367811034</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67060227880354</v>
+        <v>22.86404048574361</v>
       </c>
       <c r="C19">
-        <v>10.9915143152459</v>
+        <v>17.28083129625615</v>
       </c>
       <c r="D19">
-        <v>14.46110925519243</v>
+        <v>11.33495676907429</v>
       </c>
       <c r="E19">
-        <v>15.37180678825361</v>
+        <v>10.55692872480773</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.654913579490348</v>
+        <v>2.063716632580084</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.74749610098593</v>
+        <v>14.54770996566391</v>
       </c>
       <c r="J19">
-        <v>9.005115025759897</v>
+        <v>5.010931569573709</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.0977556971894</v>
+        <v>17.92823627167903</v>
       </c>
       <c r="N19">
-        <v>18.03570542850572</v>
+        <v>11.34769209157733</v>
       </c>
       <c r="O19">
-        <v>26.43760416555537</v>
+        <v>19.73979299782645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.84040198511867</v>
+        <v>23.31351538438701</v>
       </c>
       <c r="C20">
-        <v>11.13425668927492</v>
+        <v>17.62372851976176</v>
       </c>
       <c r="D20">
-        <v>14.47309533960071</v>
+        <v>11.46752947065885</v>
       </c>
       <c r="E20">
-        <v>15.37043583373087</v>
+        <v>10.63605788406377</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.654050950265251</v>
+        <v>2.061226268316136</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>22.72093552098321</v>
+        <v>14.56890317461041</v>
       </c>
       <c r="J20">
-        <v>8.998218879676376</v>
+        <v>4.998660187666998</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.15714576183357</v>
+        <v>18.21793622050768</v>
       </c>
       <c r="N20">
-        <v>18.01386148963145</v>
+        <v>11.26825378021943</v>
       </c>
       <c r="O20">
-        <v>26.43564827697508</v>
+        <v>19.91621074618035</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.40010052721133</v>
+        <v>24.77180448096248</v>
       </c>
       <c r="C21">
-        <v>11.60224224720328</v>
+        <v>18.73737044614773</v>
       </c>
       <c r="D21">
-        <v>14.51675856713292</v>
+        <v>11.91330965089947</v>
       </c>
       <c r="E21">
-        <v>15.36914138775359</v>
+        <v>10.90842587681909</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.651245127992412</v>
+        <v>2.052957505087859</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>22.6378329364597</v>
+        <v>14.665198988782</v>
       </c>
       <c r="J21">
-        <v>8.976004892569087</v>
+        <v>4.959634282126718</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.35909319783014</v>
+        <v>19.29779396493925</v>
       </c>
       <c r="N21">
-        <v>17.94259078867696</v>
+        <v>11.00399847443889</v>
       </c>
       <c r="O21">
-        <v>26.43702318227075</v>
+        <v>20.52806390794742</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.75727557387345</v>
+        <v>25.68673820167106</v>
       </c>
       <c r="C22">
-        <v>11.89904650695414</v>
+        <v>19.4370090000593</v>
       </c>
       <c r="D22">
-        <v>14.54779659996787</v>
+        <v>12.20467473278136</v>
       </c>
       <c r="E22">
-        <v>15.37076061184269</v>
+        <v>11.09126357843049</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.649479978682298</v>
+        <v>2.047619655656488</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.58811386783067</v>
+        <v>14.74791113295801</v>
       </c>
       <c r="J22">
-        <v>8.962197693495868</v>
+        <v>4.935828210610948</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.49269906532248</v>
+        <v>20.02204342319024</v>
       </c>
       <c r="N22">
-        <v>17.89758674834097</v>
+        <v>10.83314142834635</v>
       </c>
       <c r="O22">
-        <v>26.44384799911583</v>
+        <v>20.94224302644513</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.56746774607485</v>
+        <v>25.20187610526511</v>
       </c>
       <c r="C23">
-        <v>11.74148852968376</v>
+        <v>19.0661475530678</v>
       </c>
       <c r="D23">
-        <v>14.5310038882887</v>
+        <v>12.04917930214647</v>
       </c>
       <c r="E23">
-        <v>15.36967106823383</v>
+        <v>10.99323846315378</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.650415813984213</v>
+        <v>2.050462982277095</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>22.61422837190499</v>
+        <v>14.70188751310184</v>
       </c>
       <c r="J23">
-        <v>8.96950191297308</v>
+        <v>4.948374604381713</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.42125375073984</v>
+        <v>19.63809404269673</v>
       </c>
       <c r="N23">
-        <v>17.92146247910033</v>
+        <v>10.92416987846769</v>
       </c>
       <c r="O23">
-        <v>26.43966310892684</v>
+        <v>20.71987530245737</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.83111651974843</v>
+        <v>23.28902887430034</v>
       </c>
       <c r="C24">
-        <v>11.12646054346979</v>
+        <v>17.60504402233324</v>
       </c>
       <c r="D24">
-        <v>14.47242429824807</v>
+        <v>11.46024718585412</v>
       </c>
       <c r="E24">
-        <v>15.37049865459532</v>
+        <v>10.63168795221719</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.654097972960448</v>
+        <v>2.061362639092478</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>22.72237106110664</v>
+        <v>14.56764771069702</v>
       </c>
       <c r="J24">
-        <v>8.998593981789853</v>
+        <v>4.99932591778883</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.15387486270865</v>
+        <v>18.20210551017934</v>
       </c>
       <c r="N24">
-        <v>18.01505305606097</v>
+        <v>11.27260588593563</v>
       </c>
       <c r="O24">
-        <v>26.43572580482661</v>
+        <v>19.9064509226057</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.0036650521918</v>
+        <v>21.05858590373019</v>
       </c>
       <c r="C25">
-        <v>10.42692513477017</v>
+        <v>15.90502763022342</v>
       </c>
       <c r="D25">
-        <v>14.42014011488211</v>
+        <v>10.82679108080689</v>
       </c>
       <c r="E25">
-        <v>15.38199251281198</v>
+        <v>10.26257797177562</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.65836646365585</v>
+        <v>2.07344931273004</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.85861712898386</v>
+        <v>14.50076065403877</v>
       </c>
       <c r="J25">
-        <v>9.033037802573537</v>
+        <v>5.061228222797253</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.87352647670668</v>
+        <v>16.78487218387105</v>
       </c>
       <c r="N25">
-        <v>18.12280937079081</v>
+        <v>11.65718292160095</v>
       </c>
       <c r="O25">
-        <v>26.45688820967</v>
+        <v>19.09012166897904</v>
       </c>
     </row>
   </sheetData>
